--- a/exposan/bwaise/results/sysB_report.xlsx
+++ b/exposan/bwaise/results/sysB_report.xlsx
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2486838685</v>
+        <v>0.1740265</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K3">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.3532730040597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O3">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-0.09960870053309988</v>
+        <v>-0.1000066532405436</v>
       </c>
       <c r="R3">
-        <v>-1.8398737005331</v>
+        <v>-1.840271653240544</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4261908985</v>
+        <v>0.1740265</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K4">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.5307800340597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O4">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-0.09486542907914278</v>
+        <v>-0.09524443165766056</v>
       </c>
       <c r="R4">
-        <v>-1.934739129612243</v>
+        <v>-1.935516084898204</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3043723485</v>
+        <v>0.1740265</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K5">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.4089614840597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O5">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09034802769442163</v>
+        <v>-0.09070898253110528</v>
       </c>
       <c r="R5">
-        <v>-2.025087157306664</v>
+        <v>-2.026225067429309</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2173590985</v>
+        <v>0.1740265</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K6">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1392,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.3219482340597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O6">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-0.08604574066135395</v>
+        <v>-0.08638950717248121</v>
       </c>
       <c r="R6">
-        <v>-2.111132897968019</v>
+        <v>-2.11261457460179</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1554056645</v>
+        <v>0.1740265</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K7">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-0.2599948000597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O7">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08194832443938471</v>
+        <v>-0.08227572111664878</v>
       </c>
       <c r="R7">
-        <v>-2.193081222407403</v>
+        <v>-2.19489029571844</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.155231638</v>
+        <v>0.1740265</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K8">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.2598207735597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O8">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07804602327560449</v>
+        <v>-0.07835782963490359</v>
       </c>
       <c r="R8">
-        <v>-2.271127245683008</v>
+        <v>-2.273248125353343</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1554056645</v>
+        <v>0.1740265</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K9">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1560,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.2599948000597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O9">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07432954597676618</v>
+        <v>-0.0746265044141939</v>
       </c>
       <c r="R9">
-        <v>-2.345456791659774</v>
+        <v>-2.347874629767537</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.077615819</v>
+        <v>0.1740265</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K10">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.1822049545597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O10">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07079004378739635</v>
+        <v>-0.07107286134685134</v>
       </c>
       <c r="R10">
-        <v>-2.41624683544717</v>
+        <v>-2.418947491114388</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1639,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.403125</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1740265</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K11">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.1045891355597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O11">
-        <v>-0.1045891355597549</v>
+        <v>-1.508131985902571</v>
       </c>
       <c r="P11">
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.06741908932132987</v>
+        <v>-0.9721553249460502</v>
       </c>
       <c r="R11">
-        <v>-2.4836659247685</v>
+        <v>-3.391102816060438</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1701,7 +1701,7 @@
         <v>-0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1740265</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K12">
-        <v>0.1779342229102137</v>
+        <v>0.1775163725673978</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.1045891355597549</v>
+        <v>-0.2790334859025708</v>
       </c>
       <c r="O12">
-        <v>-0.1045891355597549</v>
+        <v>-0.1050069859025708</v>
       </c>
       <c r="P12">
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06420865649650462</v>
+        <v>-0.06446518035995585</v>
       </c>
       <c r="R12">
-        <v>-2.547874581265005</v>
+        <v>-3.455567996420394</v>
       </c>
     </row>
   </sheetData>
@@ -2443,22 +2443,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002705621826473629</v>
+        <v>0.1849161200144854</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02500566459526617</v>
+        <v>0.04725133422290483</v>
       </c>
       <c r="J7">
-        <v>0.001118203799433003</v>
+        <v>0.002112986089813162</v>
       </c>
       <c r="K7">
-        <v>4.629346641245625</v>
+        <v>4.833802809061275</v>
       </c>
       <c r="L7">
-        <v>0.001118203799433003</v>
+        <v>0.002112986089813162</v>
       </c>
       <c r="M7">
         <v>8.768093692704328</v>
@@ -2473,19 +2473,19 @@
         <v>1.3506914877225</v>
       </c>
       <c r="Q7">
-        <v>1205.701559516292</v>
+        <v>1203.289985006761</v>
       </c>
       <c r="R7">
         <v>0.4716271560000001</v>
       </c>
       <c r="S7">
-        <v>0.1999222053610009</v>
+        <v>0.07331355022170805</v>
       </c>
       <c r="T7">
         <v>0.3338634048749999</v>
       </c>
       <c r="U7">
-        <v>14.59450718711785</v>
+        <v>11.04535151219565</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>15.59991995335385</v>
+        <v>11.92415562329236</v>
       </c>
       <c r="AB7">
-        <v>180.838070960369</v>
+        <v>183.2095318184732</v>
       </c>
       <c r="AC7">
         <v>0.01041666666666667</v>
@@ -2521,10 +2521,10 @@
         <v>1215.696723851107</v>
       </c>
       <c r="AG7">
-        <v>1215.660914670549</v>
+        <v>1213.249340161018</v>
       </c>
       <c r="AH7">
-        <v>1215.324428200516</v>
+        <v>1212.912853690985</v>
       </c>
       <c r="AI7">
         <v>0.9742326325227032</v>
@@ -2660,10 +2660,10 @@
         <v>0.2069639540846185</v>
       </c>
       <c r="AG9">
-        <v>0.2069700505293683</v>
+        <v>0.2073814446934292</v>
       </c>
       <c r="AH9">
-        <v>0.196675986545469</v>
+        <v>0.1970670276613634</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1.281559174398323</v>
+        <v>0.6148322156958362</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0.2340790339899743</v>
       </c>
       <c r="AG10">
-        <v>0.2340859291515212</v>
+        <v>0.2345512215206123</v>
       </c>
       <c r="AH10">
-        <v>0.2294677256359359</v>
+        <v>0.2299239649413564</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.140161012834057</v>
+        <v>2.799891375309119</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2928,10 +2928,10 @@
         <v>0.1133717474995682</v>
       </c>
       <c r="AG11">
-        <v>0.113375087040494</v>
+        <v>0.1136004425885023</v>
       </c>
       <c r="AH11">
-        <v>0.1111383476198546</v>
+        <v>0.1113593184879065</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3.02326651297082</v>
+        <v>3.955224763074503</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>0.2596267623393355</v>
       </c>
       <c r="AG12">
-        <v>0.2596344100489049</v>
+        <v>0.2601504851081239</v>
       </c>
       <c r="AH12">
-        <v>0.2545121690427885</v>
+        <v>0.2550182029737187</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.05376703670019928</v>
+        <v>0.05387479394639501</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1.762649445450732</v>
+        <v>2.329034071174279</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1.649046923120227</v>
+        <v>2.15738546297982</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>0.05441324197242944</v>
       </c>
       <c r="AG13">
-        <v>0.05441484479899318</v>
+        <v>0.0545230051320043</v>
       </c>
       <c r="AH13">
-        <v>0.05334131240658664</v>
+        <v>0.05344736829420726</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2025888839617385</v>
+        <v>0.202994902622713</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>13.41851863552652</v>
+        <v>17.73023397674895</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>12.55369689410255</v>
+        <v>16.4235248896051</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>0.2050237216047588</v>
       </c>
       <c r="AG14">
-        <v>0.2050297608969471</v>
+        <v>0.205437298349231</v>
       </c>
       <c r="AH14">
-        <v>0.2009847968702499</v>
+        <v>0.2013844049801488</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>98.30050138852638</v>
+        <v>98.4975104107708</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>68.96063263388818</v>
+        <v>69.64924221231341</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>64.51612903225809</v>
+        <v>64.51612903225821</v>
       </c>
       <c r="AB15">
         <v>100</v>
@@ -3464,10 +3464,10 @@
         <v>97.49229844917777</v>
       </c>
       <c r="AG15">
-        <v>97.49517023626578</v>
+        <v>97.68896128939997</v>
       </c>
       <c r="AH15">
-        <v>97.52216369160726</v>
+        <v>97.7160621760345</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2987826382680486</v>
+        <v>0.09896637007446095</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>15.85819928513457</v>
+        <v>10.29148973976336</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>14.83614045031593</v>
+        <v>9.533012261077412</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>0.2992716882706065</v>
       </c>
       <c r="AG16">
-        <v>0.2963348484505701</v>
+        <v>0.09815397216475484</v>
       </c>
       <c r="AH16">
-        <v>0.2964168945814542</v>
+        <v>0.09818120205477777</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.144360052543629</v>
+        <v>1.146653522585619</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4536,10 +4536,10 @@
         <v>1.134951401060933</v>
       </c>
       <c r="AG23">
-        <v>1.1349848328174</v>
+        <v>1.137240841043346</v>
       </c>
       <c r="AH23">
-        <v>1.135299075690392</v>
+        <v>1.137556334572015</v>
       </c>
       <c r="AI23">
         <v>0</v>

--- a/exposan/bwaise/results/sysB_report.xlsx
+++ b/exposan/bwaise/results/sysB_report.xlsx
@@ -1215,7 +1215,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K3">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O3">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-0.1000066532405436</v>
+        <v>-0.1012940792646235</v>
       </c>
       <c r="R3">
-        <v>-1.840271653240544</v>
+        <v>-1.841559079264623</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1271,7 +1271,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K4">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O4">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-0.09524443165766056</v>
+        <v>-0.09647055168059382</v>
       </c>
       <c r="R4">
-        <v>-1.935516084898204</v>
+        <v>-1.938029630945217</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1327,7 +1327,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K5">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O5">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09070898253110528</v>
+        <v>-0.09187671588627984</v>
       </c>
       <c r="R5">
-        <v>-2.026225067429309</v>
+        <v>-2.029906346831497</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1383,7 +1383,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K6">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1392,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O6">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-0.08638950717248121</v>
+        <v>-0.08750163417740936</v>
       </c>
       <c r="R6">
-        <v>-2.11261457460179</v>
+        <v>-2.117407981008907</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1439,7 +1439,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K7">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O7">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08227572111664878</v>
+        <v>-0.08333488969277081</v>
       </c>
       <c r="R7">
-        <v>-2.19489029571844</v>
+        <v>-2.200742870701678</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1495,7 +1495,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K8">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O8">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07835782963490359</v>
+        <v>-0.07936656161216267</v>
       </c>
       <c r="R8">
-        <v>-2.273248125353343</v>
+        <v>-2.28010943231384</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1551,7 +1551,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K9">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1560,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O9">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.0746265044141939</v>
+        <v>-0.07558720153539301</v>
       </c>
       <c r="R9">
-        <v>-2.347874629767537</v>
+        <v>-2.355696633849234</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1607,7 +1607,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K10">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O10">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07107286134685134</v>
+        <v>-0.07198781098608859</v>
       </c>
       <c r="R10">
-        <v>-2.418947491114388</v>
+        <v>-2.427684444835322</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1663,7 +1663,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K11">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O11">
-        <v>-1.508131985902571</v>
+        <v>-1.509483783227855</v>
       </c>
       <c r="P11">
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.9721553249460502</v>
+        <v>-0.9730267055548476</v>
       </c>
       <c r="R11">
-        <v>-3.391102816060438</v>
+        <v>-3.400711150390169</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1719,7 +1719,7 @@
         <v>0.2825233584699686</v>
       </c>
       <c r="K12">
-        <v>0.1775163725673978</v>
+        <v>0.1761645752421138</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.2790334859025708</v>
+        <v>-0.2803852832278547</v>
       </c>
       <c r="O12">
-        <v>-0.1050069859025708</v>
+        <v>-0.1063587832278547</v>
       </c>
       <c r="P12">
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06446518035995585</v>
+        <v>-0.06529506665404859</v>
       </c>
       <c r="R12">
-        <v>-3.455567996420394</v>
+        <v>-3.466006217044218</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2428,7 @@
         <v>80</v>
       </c>
       <c r="B7">
-        <v>1413.600841687333</v>
+        <v>1413.144522950584</v>
       </c>
       <c r="C7">
         <v>4.601635354823885</v>
@@ -2443,22 +2443,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1849161200144854</v>
+        <v>0.180694589209647</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.04725133422290483</v>
+        <v>0.04666497055469401</v>
       </c>
       <c r="J7">
-        <v>0.002112986089813162</v>
+        <v>0.001920833464011203</v>
       </c>
       <c r="K7">
-        <v>4.833802809061275</v>
+        <v>4.828994914588225</v>
       </c>
       <c r="L7">
-        <v>0.002112986089813162</v>
+        <v>0.001920833464011203</v>
       </c>
       <c r="M7">
         <v>8.768093692704328</v>
@@ -2467,25 +2467,25 @@
         <v>3.09314856312</v>
       </c>
       <c r="O7">
-        <v>5.179028633381112</v>
+        <v>4.772357375190623</v>
       </c>
       <c r="P7">
         <v>1.3506914877225</v>
       </c>
       <c r="Q7">
-        <v>1203.289985006761</v>
+        <v>1203.381105242285</v>
       </c>
       <c r="R7">
         <v>0.4716271560000001</v>
       </c>
       <c r="S7">
-        <v>0.07331355022170805</v>
+        <v>0.0703902147552139</v>
       </c>
       <c r="T7">
         <v>0.3338634048749999</v>
       </c>
       <c r="U7">
-        <v>11.04535151219565</v>
+        <v>11.12385798597177</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2503,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>11.92415562329236</v>
+        <v>11.99973876160199</v>
       </c>
       <c r="AB7">
-        <v>183.2095318184732</v>
+        <v>183.1242630044948</v>
       </c>
       <c r="AC7">
         <v>0.01041666666666667</v>
@@ -2518,13 +2518,13 @@
         <v>5053.066089749999</v>
       </c>
       <c r="AF7">
-        <v>1215.696723851107</v>
+        <v>1215.304289737502</v>
       </c>
       <c r="AG7">
-        <v>1213.249340161018</v>
+        <v>1212.911520783998</v>
       </c>
       <c r="AH7">
-        <v>1212.912853690985</v>
+        <v>1212.597302668319</v>
       </c>
       <c r="AI7">
         <v>0.9742326325227032</v>
@@ -2533,10 +2533,10 @@
         <v>1541.09589041096</v>
       </c>
       <c r="AK7">
-        <v>0.3364864700325733</v>
+        <v>0.314218115679234</v>
       </c>
       <c r="AL7">
-        <v>197.9041178362266</v>
+        <v>197.8402332130818</v>
       </c>
       <c r="AM7">
         <v>0.000281583</v>
@@ -2567,7 +2567,7 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>0.177989000512772</v>
+        <v>0.1457554580694992</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>46.15250229522244</v>
+        <v>41.00171791727921</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2657,13 +2657,13 @@
         <v>0.03670593194421815</v>
       </c>
       <c r="AF9">
-        <v>0.2069639540846185</v>
+        <v>0.1694830907784874</v>
       </c>
       <c r="AG9">
-        <v>0.2073814446934292</v>
+        <v>0.1698174382315453</v>
       </c>
       <c r="AH9">
-        <v>0.1970670276613634</v>
+        <v>0.1613683705772977</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0.1665958663793535</v>
       </c>
       <c r="AK9">
-        <v>37.38714975844132</v>
+        <v>32.77556528143214</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>83</v>
       </c>
       <c r="B10">
-        <v>0.2255184141086641</v>
+        <v>0.2255912362978799</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>53.84749770477755</v>
+        <v>58.99828208272078</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.6148322156958362</v>
+        <v>0.5865978931179389</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.2340790339899743</v>
+        <v>0.2364074821346944</v>
       </c>
       <c r="AG10">
-        <v>0.2345512215206123</v>
+        <v>0.2368738545567012</v>
       </c>
       <c r="AH10">
-        <v>0.2299239649413564</v>
+        <v>0.2321965305394255</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0.2110829066666665</v>
       </c>
       <c r="AK10">
-        <v>16.91414901266592</v>
+        <v>18.28710776546254</v>
       </c>
       <c r="AL10">
-        <v>0.1729317491234726</v>
+        <v>0.1591485833003053</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>84</v>
       </c>
       <c r="B11">
-        <v>0.1211176432914642</v>
+        <v>0.1211567534101302</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.799891375309119</v>
+        <v>2.782255609958201</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0.007589476234595889</v>
       </c>
       <c r="AF11">
-        <v>0.1133717474995682</v>
+        <v>0.1134083563897149</v>
       </c>
       <c r="AG11">
-        <v>0.1136004425885023</v>
+        <v>0.1136320825144877</v>
       </c>
       <c r="AH11">
-        <v>0.1113593184879065</v>
+        <v>0.1113882972319256</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -2940,10 +2940,10 @@
         <v>0.1133648633333332</v>
       </c>
       <c r="AK11">
-        <v>8.192047781247043</v>
+        <v>8.772610816188418</v>
       </c>
       <c r="AL11">
-        <v>0.1686995745845394</v>
+        <v>0.1687540493926813</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>85</v>
       </c>
       <c r="B12">
-        <v>0.2566425466802628</v>
+        <v>0.2567254191683878</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3.955224763074503</v>
+        <v>3.930311862364553</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3059,13 +3059,13 @@
         <v>0.01947451275169619</v>
       </c>
       <c r="AF12">
-        <v>0.2596267623393355</v>
+        <v>0.2597105984610434</v>
       </c>
       <c r="AG12">
-        <v>0.2601504851081239</v>
+        <v>0.2602229420625717</v>
       </c>
       <c r="AH12">
-        <v>0.2550182029737187</v>
+        <v>0.2550845656932875</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0.2402147733333332</v>
       </c>
       <c r="AK12">
-        <v>18.76018399012874</v>
+        <v>20.08970130304043</v>
       </c>
       <c r="AL12">
-        <v>0.2383109362031011</v>
+        <v>0.2383878892277886</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>86</v>
       </c>
       <c r="B13">
-        <v>0.06499359457817963</v>
+        <v>0.06501458167078977</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.05387479394639501</v>
+        <v>0.0538707145372271</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2.329034071174279</v>
+        <v>2.312596945451987</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>2.15738546297982</v>
+        <v>2.143796670167315</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.05441324197242944</v>
+        <v>0.05443081256159144</v>
       </c>
       <c r="AG13">
-        <v>0.0545230051320043</v>
+        <v>0.05453819084614034</v>
       </c>
       <c r="AH13">
-        <v>0.05344736829420726</v>
+        <v>0.05346127676298493</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -3208,10 +3208,10 @@
         <v>0.06083333333333329</v>
       </c>
       <c r="AK13">
-        <v>3.93180742117781</v>
+        <v>4.210451065624001</v>
       </c>
       <c r="AL13">
-        <v>0.1299871891563593</v>
+        <v>0.1300291633415795</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>87</v>
       </c>
       <c r="B14">
-        <v>0.3148578581787368</v>
+        <v>0.3149595289829371</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.202994902622713</v>
+        <v>0.2029795318118729</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>17.73023397674895</v>
+        <v>17.60510309585353</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>16.4235248896051</v>
+        <v>16.32007750813086</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3327,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.2050237216047588</v>
+        <v>0.2050899258493544</v>
       </c>
       <c r="AG14">
-        <v>0.205437298349231</v>
+        <v>0.205494516620272</v>
       </c>
       <c r="AH14">
-        <v>0.2013844049801488</v>
+        <v>0.2014368107168271</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>0.2947037037037034</v>
       </c>
       <c r="AK14">
-        <v>14.81466203633917</v>
+        <v>15.86456376825248</v>
       </c>
       <c r="AL14">
-        <v>0.9895532685617443</v>
+        <v>0.9898728053749449</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>88</v>
       </c>
       <c r="B15">
-        <v>97.34807543391207</v>
+        <v>97.37951011740373</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>98.4975104107708</v>
+        <v>98.49308573896067</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>69.64924221231341</v>
+        <v>69.59606058196829</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>64.51612903225821</v>
+        <v>64.51612903225812</v>
       </c>
       <c r="AB15">
         <v>100</v>
@@ -3461,13 +3461,13 @@
         <v>99.93623007906949</v>
       </c>
       <c r="AF15">
-        <v>97.49229844917777</v>
+        <v>97.52678351927338</v>
       </c>
       <c r="AG15">
-        <v>97.68896128939997</v>
+        <v>97.71917930061547</v>
       </c>
       <c r="AH15">
-        <v>97.7160621760345</v>
+        <v>97.74450109237436</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>96.46213405442278</v>
+        <v>96.47483064877584</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>0.5147473038254432</v>
+        <v>0.5149135209643215</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.09896637007446095</v>
+        <v>0.1034973169172801</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>10.29148973976336</v>
+        <v>10.48623937672619</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>9.533012261077412</v>
+        <v>9.720831424002991</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3595,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.2992716882706065</v>
+        <v>0.2993683261420474</v>
       </c>
       <c r="AG16">
-        <v>0.09815397216475484</v>
+        <v>0.1026840898840036</v>
       </c>
       <c r="AH16">
-        <v>0.09818120205477777</v>
+        <v>0.1027106982239386</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1.838383227948011</v>
+        <v>1.838976860586862</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>96</v>
       </c>
       <c r="B23">
-        <v>0.9760582049124029</v>
+        <v>0.9763733840323199</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.146653522585619</v>
+        <v>1.146566697772942</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4533,13 +4533,13 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.134951401060933</v>
+        <v>1.135317888409674</v>
       </c>
       <c r="AG23">
-        <v>1.137240841043346</v>
+        <v>1.137557584668795</v>
       </c>
       <c r="AH23">
-        <v>1.137556334572015</v>
+        <v>1.137852357879939</v>
       </c>
       <c r="AI23">
         <v>0</v>

--- a/exposan/bwaise/results/sysB_report.xlsx
+++ b/exposan/bwaise/results/sysB_report.xlsx
@@ -608,8 +608,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>161</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -629,7 +629,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="98288475" cy="22821900"/>
+          <a:ext cx="79362300" cy="22821900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O3">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P3">
         <v>0.9523809523809523</v>
       </c>
       <c r="Q3">
-        <v>-0.1012940792646235</v>
+        <v>-0.1012940792646236</v>
       </c>
       <c r="R3">
         <v>-1.841559079264623</v>
@@ -1280,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O4">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P4">
         <v>0.9070294784580498</v>
       </c>
       <c r="Q4">
-        <v>-0.09647055168059382</v>
+        <v>-0.09647055168059389</v>
       </c>
       <c r="R4">
-        <v>-1.938029630945217</v>
+        <v>-1.938029630945218</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O5">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P5">
         <v>0.863837598531476</v>
       </c>
       <c r="Q5">
-        <v>-0.09187671588627984</v>
+        <v>-0.09187671588627988</v>
       </c>
       <c r="R5">
         <v>-2.029906346831497</v>
@@ -1392,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O6">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P6">
         <v>0.8227024747918819</v>
       </c>
       <c r="Q6">
-        <v>-0.08750163417740936</v>
+        <v>-0.0875016341774094</v>
       </c>
       <c r="R6">
         <v>-2.117407981008907</v>
@@ -1448,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O7">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P7">
         <v>0.7835261664684589</v>
       </c>
       <c r="Q7">
-        <v>-0.08333488969277081</v>
+        <v>-0.08333488969277085</v>
       </c>
       <c r="R7">
         <v>-2.200742870701678</v>
@@ -1504,16 +1504,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O8">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P8">
         <v>0.7462153966366274</v>
       </c>
       <c r="Q8">
-        <v>-0.07936656161216267</v>
+        <v>-0.07936656161216271</v>
       </c>
       <c r="R8">
         <v>-2.28010943231384</v>
@@ -1560,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O9">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P9">
         <v>0.7106813301301214</v>
       </c>
       <c r="Q9">
-        <v>-0.07558720153539301</v>
+        <v>-0.07558720153539306</v>
       </c>
       <c r="R9">
         <v>-2.355696633849234</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O10">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P10">
         <v>0.676839362028687</v>
       </c>
       <c r="Q10">
-        <v>-0.07198781098608859</v>
+        <v>-0.07198781098608863</v>
       </c>
       <c r="R10">
         <v>-2.427684444835322</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O11">
         <v>-1.509483783227855</v>
@@ -1681,7 +1681,7 @@
         <v>0.6446089162177973</v>
       </c>
       <c r="Q11">
-        <v>-0.9730267055548476</v>
+        <v>-0.9730267055548477</v>
       </c>
       <c r="R11">
         <v>-3.400711150390169</v>
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.2803852832278547</v>
+        <v>-0.2803852832278548</v>
       </c>
       <c r="O12">
-        <v>-0.1063587832278547</v>
+        <v>-0.1063587832278548</v>
       </c>
       <c r="P12">
         <v>0.6139132535407591</v>
       </c>
       <c r="Q12">
-        <v>-0.06529506665404859</v>
+        <v>-0.06529506665404863</v>
       </c>
       <c r="R12">
         <v>-3.466006217044218</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.04666497055469401</v>
+        <v>0.046664970554694</v>
       </c>
       <c r="J7">
         <v>0.001920833464011203</v>
@@ -2461,13 +2461,13 @@
         <v>0.001920833464011203</v>
       </c>
       <c r="M7">
-        <v>8.768093692704328</v>
+        <v>8.768093692704326</v>
       </c>
       <c r="N7">
         <v>3.09314856312</v>
       </c>
       <c r="O7">
-        <v>4.772357375190623</v>
+        <v>4.772357375190621</v>
       </c>
       <c r="P7">
         <v>1.3506914877225</v>
@@ -2479,19 +2479,19 @@
         <v>0.4716271560000001</v>
       </c>
       <c r="S7">
-        <v>0.0703902147552139</v>
+        <v>0.07039021475521384</v>
       </c>
       <c r="T7">
         <v>0.3338634048749999</v>
       </c>
       <c r="U7">
-        <v>11.12385798597177</v>
+        <v>11.12385798597172</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>9.742326325227031</v>
+        <v>9.74232632522703</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>11.99973876160199</v>
+        <v>11.99973876160194</v>
       </c>
       <c r="AB7">
         <v>183.1242630044948</v>
@@ -2527,7 +2527,7 @@
         <v>1212.597302668319</v>
       </c>
       <c r="AI7">
-        <v>0.9742326325227032</v>
+        <v>0.974232632522703</v>
       </c>
       <c r="AJ7">
         <v>1541.09589041096</v>
@@ -2545,13 +2545,13 @@
         <v>1510.273972602741</v>
       </c>
       <c r="AO7">
-        <v>0.05833333333333333</v>
+        <v>0.05833333333333334</v>
       </c>
       <c r="AP7">
-        <v>4.822451530987381</v>
+        <v>4.822451530987379</v>
       </c>
       <c r="AQ7">
-        <v>3.945642161716947</v>
+        <v>3.945642161716946</v>
       </c>
       <c r="AR7">
         <v>1510.273972602741</v>
@@ -2567,7 +2567,7 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>0.1457554580694992</v>
+        <v>0.1457554580694991</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>41.00171791727921</v>
+        <v>41.0017179172792</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>0.03670593194421815</v>
       </c>
       <c r="AF9">
-        <v>0.1694830907784874</v>
+        <v>0.1694830907784873</v>
       </c>
       <c r="AG9">
-        <v>0.1698174382315453</v>
+        <v>0.1698174382315452</v>
       </c>
       <c r="AH9">
         <v>0.1613683705772977</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.1665958663793535</v>
+        <v>0.1665958663793534</v>
       </c>
       <c r="AK9">
         <v>32.77556528143214</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.1665958663793535</v>
+        <v>0.1665958663793534</v>
       </c>
       <c r="AO9">
         <v>0.3659002285714285</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.1665958663793535</v>
+        <v>0.1665958663793534</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>58.99828208272078</v>
+        <v>58.99828208272081</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.5865978931179389</v>
+        <v>0.5865978931179409</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.782255609958201</v>
+        <v>2.782255609958212</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>3.930311862364553</v>
+        <v>3.930311862364569</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0.2402147733333332</v>
+        <v>0.2402147733333331</v>
       </c>
       <c r="AO12">
         <v>0.1188905142857143</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0.2402147733333332</v>
+        <v>0.2402147733333331</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>2.312596945451987</v>
+        <v>2.312596945451997</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>2.143796670167315</v>
+        <v>2.143796670167324</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.06083333333333329</v>
+        <v>0.06083333333333328</v>
       </c>
       <c r="AK13">
         <v>4.210451065624001</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>0.06083333333333329</v>
+        <v>0.06083333333333328</v>
       </c>
       <c r="AO13">
         <v>0.01428571428571429</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0.06083333333333329</v>
+        <v>0.06083333333333328</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>17.60510309585353</v>
+        <v>17.60510309585361</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>16.32007750813086</v>
+        <v>16.32007750813093</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>69.59606058196829</v>
+        <v>69.59606058196812</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>64.51612903225812</v>
+        <v>64.51612903225796</v>
       </c>
       <c r="AB15">
         <v>100</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>91.11679328808577</v>
+        <v>91.11679328808576</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>91.11679328808577</v>
+        <v>91.11679328808576</v>
       </c>
       <c r="AO15">
         <v>94.99999999999999</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>91.11679328808577</v>
+        <v>91.11679328808576</v>
       </c>
     </row>
     <row r="16" spans="1:44">
@@ -3505,7 +3505,7 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>0.5149135209643215</v>
+        <v>0.5149135209643223</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.1034973169172801</v>
+        <v>0.1034973169172802</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>10.48623937672619</v>
+        <v>10.48623937672626</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>9.720831424002991</v>
+        <v>9.720831424003046</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3595,34 +3595,34 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.2993683261420474</v>
+        <v>0.2993683261420479</v>
       </c>
       <c r="AG16">
-        <v>0.1026840898840036</v>
+        <v>0.1026840898840038</v>
       </c>
       <c r="AH16">
-        <v>0.1027106982239386</v>
+        <v>0.1027106982239387</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>6.882830865164498</v>
+        <v>6.882830865164508</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1.838976860586862</v>
+        <v>1.838976860586865</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>6.882830865164498</v>
+        <v>6.882830865164508</v>
       </c>
       <c r="AO16">
-        <v>4.371793721428576</v>
+        <v>4.371793721428588</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>6.882830865164498</v>
+        <v>6.882830865164508</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -3896,7 +3896,7 @@
         <v>100</v>
       </c>
       <c r="AQ18">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>100</v>
       </c>
       <c r="AN23">
-        <v>0.9135803999999993</v>
+        <v>0.9135803999999992</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0.9135803999999993</v>
+        <v>0.9135803999999992</v>
       </c>
     </row>
     <row r="24" spans="1:44">
